--- a/Project Roadmap.xlsx
+++ b/Project Roadmap.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3929FE94-B11A-4640-AB70-A4E1D92F7E78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A2E686-A410-40E1-A00F-B1A9F5F6F1FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,9 @@
     <definedName name="clInProgress">'Project Roadmap'!$E$4</definedName>
     <definedName name="clNotStarted">'Project Roadmap'!$D$4</definedName>
     <definedName name="ColumnTitle1">Data[[#Headers],[Task]]</definedName>
-    <definedName name="ColumnTitle2">People[[#Headers],[Name]]</definedName>
+    <definedName name="ColumnTitle2">People[[#Headers],[Description]]</definedName>
     <definedName name="ColumnTitleRegion1..K4.1">'Project Roadmap'!$D$3</definedName>
-    <definedName name="Names">People[Name]</definedName>
+    <definedName name="Names">People[Description]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Links!$4:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Roadmap'!$6:$6</definedName>
     <definedName name="txtCustom1">'Project Roadmap'!$H$3</definedName>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Marketing Plan Data</t>
-  </si>
-  <si>
-    <t>John C.</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -54,24 +51,6 @@
   </si>
   <si>
     <t>Delayed</t>
-  </si>
-  <si>
-    <t>Marketing Analyst</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Research Coordinator</t>
-  </si>
-  <si>
-    <t>Marketing Specialist</t>
-  </si>
-  <si>
-    <t>Associate Marketing Manager</t>
-  </si>
-  <si>
-    <t>Marketing Manager</t>
   </si>
   <si>
     <t>ON</t>
@@ -90,27 +69,6 @@
   </si>
   <si>
     <t>Custom 1</t>
-  </si>
-  <si>
-    <t>Kamil A.</t>
-  </si>
-  <si>
-    <t>Mark M.</t>
-  </si>
-  <si>
-    <t>Phil G.</t>
-  </si>
-  <si>
-    <t>Andrew L.</t>
-  </si>
-  <si>
-    <t>Timothy S.</t>
-  </si>
-  <si>
-    <t>Vivian A.</t>
-  </si>
-  <si>
-    <t>Gabe F.</t>
   </si>
   <si>
     <t>Task</t>
@@ -133,12 +91,6 @@
   <si>
     <t>Actual
 End Date</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Status Color Legend &amp; Toggle</t>
@@ -187,6 +139,24 @@
   </si>
   <si>
     <t>Show data on local host or use flask as webpage</t>
+  </si>
+  <si>
+    <t>Select datasets</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/bigquery/docs/bigquery-storage-python-pandas</t>
   </si>
 </sst>
 </file>
@@ -734,7 +704,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +816,9 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent1" xfId="7" builtinId="30" customBuiltin="1"/>
@@ -870,49 +843,6 @@
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1008,6 +938,49 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4573,8 +4546,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3298031</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>369570</xdr:rowOff>
     </xdr:to>
@@ -4801,10 +4774,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B6:G21" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B6:G21" headerRowDxfId="13">
   <autoFilter ref="B6:G21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" totalsRowLabel="Total" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Task" totalsRowLabel="Total" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Status" totalsRowFunction="count"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Anticipated_x000a_Start Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Anticipated_x000a_End Date"/>
@@ -4821,11 +4794,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="People" displayName="People" ref="B4:C12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="People" displayName="People" ref="B4:C12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="B4:C12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Title" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="URL" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Plan List" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -5169,7 +5142,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5184,7 +5157,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="31"/>
@@ -5198,11 +5171,11 @@
     </row>
     <row r="2" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="33" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
@@ -5216,56 +5189,56 @@
       <c r="B3" s="32"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
       <c r="H3" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
       <c r="C4" s="4"/>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5282,22 +5255,22 @@
     </row>
     <row r="6" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -5306,10 +5279,10 @@
     </row>
     <row r="7" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="25">
         <v>43546</v>
@@ -5330,10 +5303,10 @@
     </row>
     <row r="8" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="25">
         <v>43546</v>
@@ -5354,10 +5327,10 @@
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="25">
         <v>43555</v>
@@ -5377,8 +5350,12 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>2</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -5402,10 +5379,10 @@
     </row>
     <row r="12" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="25">
         <v>43563</v>
@@ -5422,10 +5399,10 @@
     </row>
     <row r="13" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5438,14 +5415,20 @@
     </row>
     <row r="14" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D14" s="25">
+        <v>43569</v>
+      </c>
+      <c r="E14" s="25">
+        <v>43574</v>
+      </c>
+      <c r="F14" s="25">
+        <v>43569</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -5454,13 +5437,17 @@
     </row>
     <row r="15" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <v>43569</v>
+      </c>
+      <c r="E15" s="25">
+        <v>43574</v>
+      </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15"/>
@@ -5470,13 +5457,17 @@
     </row>
     <row r="16" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <v>43569</v>
+      </c>
+      <c r="E16" s="25">
+        <v>43574</v>
+      </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16"/>
@@ -5486,13 +5477,17 @@
     </row>
     <row r="17" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="25">
+        <v>43569</v>
+      </c>
+      <c r="E17" s="25">
+        <v>43574</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17"/>
@@ -5502,10 +5497,10 @@
     </row>
     <row r="18" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -5518,10 +5513,10 @@
     </row>
     <row r="19" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5534,10 +5529,10 @@
     </row>
     <row r="20" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5550,10 +5545,10 @@
     </row>
     <row r="21" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5571,28 +5566,28 @@
     <mergeCell ref="D2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:G21">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>($C7="Not Started")*(clNotStarted="ON")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>($C7="In Progress")*(clInProgress="ON")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>($C7="Delayed")*(clDelayed="ON")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="4" priority="12">
       <formula>($C7="Complete")*(clComplete="ON")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>(clCustom1="ON")*($C7=txtCustom1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>(clCustom2="ON")*($C7=txtCustom2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>(clCustom3="ON")*($C7=txtCustom3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>(clCustom4="ON")*($C7=txtCustom4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5644,19 +5639,21 @@
   </sheetPr>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="85.75" customWidth="1"/>
     <col min="4" max="4" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="36" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C1" s="36"/>
     </row>
@@ -5672,75 +5669,47 @@
     </row>
     <row r="4" spans="2:3" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="2:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>10</v>
-      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6020,16 +5989,16 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB26FF4A-9A24-42D8-B946-9CA436224F6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="6dc4bcd6-49db-4c07-9060-8acfc67cef9f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fb0879af-3eba-417a-a55a-ffe6dcd6ca77"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
